--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T14:02:29+00:00</t>
+    <t>2026-02-06T14:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T14:23:47+00:00</t>
+    <t>2026-02-06T15:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T15:34:31+00:00</t>
+    <t>2026-02-09T08:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T08:05:03+00:00</t>
+    <t>2026-02-09T08:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T08:06:25+00:00</t>
+    <t>2026-02-09T08:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T08:40:43+00:00</t>
+    <t>2026-02-09T14:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/concertation/ig/StructureDefinition-tde-auditevent.xlsx
+++ b/concertation/ig/StructureDefinition-tde-auditevent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T14:30:05+00:00</t>
+    <t>2026-02-09T14:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
